--- a/ProjectExcel.xlsx
+++ b/ProjectExcel.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1771079E-6B71-444D-87F4-D6E0FEEF8C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yeil\YeilMainProjectBackUp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536E9515-8E0A-400D-B6BE-9436BB7A4CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="History" sheetId="11" r:id="rId1"/>
+    <sheet name="Hiper Link" sheetId="5" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId3"/>
+    <sheet name="Bunker" sheetId="17" r:id="rId4"/>
+    <sheet name="Player Status" sheetId="8" r:id="rId5"/>
+    <sheet name="Player Classes" sheetId="2" r:id="rId6"/>
+    <sheet name="Player Weapons" sheetId="3" r:id="rId7"/>
+    <sheet name="Defensive Goods" sheetId="4" r:id="rId8"/>
+    <sheet name="Enemy" sheetId="6" r:id="rId9"/>
+    <sheet name="Store" sheetId="7" r:id="rId10"/>
+    <sheet name="획득 포인트" sheetId="15" r:id="rId11"/>
+    <sheet name="클래스 목표 경험치" sheetId="12" r:id="rId12"/>
+    <sheet name="스테이지 획득 경험치" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="마지막셀">INDEX(History!$C:$C,MATCH("*",History!$C:$C,-1)+1)</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>4주 ~ 6주 나올 프로젝트</t>
   </si>
@@ -38,39 +57,6 @@
     <t>어떠한 부분을 구현할 것인가</t>
   </si>
   <si>
-    <t>간단한 튜토리얼처럼 어떠한 것을 간단하게 플레이하는 것을 만들어보자.</t>
-  </si>
-  <si>
-    <t>건물이나 제한된 공간에서 시작한다.</t>
-  </si>
-  <si>
-    <t>시작 지점 주위에는 적이 없어야 한다.</t>
-  </si>
-  <si>
-    <t>시작 지점에서 플레이어는 무기를 가지고 시작하며</t>
-  </si>
-  <si>
-    <t>주위에는 추가적인 무기들이 떨어져 있다. (아이템 획득 방법 인터페이스 표시)</t>
-  </si>
-  <si>
-    <t>문을 열고 바로 적이 등장하지는 않으며 넓은 공간이 나온다.</t>
-  </si>
-  <si>
-    <t>특정 트리거 이벤트로 적이 생성되며 적이 생성되면 플레이어 화면에 간단한 경고 표시로 알려준다.</t>
-  </si>
-  <si>
-    <t>적의 위치를 알려주는 『미니맵』이 있으면 편리할 것이다.</t>
-  </si>
-  <si>
-    <t>플레이어가 이동해야 하는 위치를 알려주는 월드 맵</t>
-  </si>
-  <si>
-    <t>적을 처치하면 탄창과 같은 아이템을 얻을 수 있다.</t>
-  </si>
-  <si>
-    <t>아이템을 얻으면서 최종 적을 클리어하면 끝.</t>
-  </si>
-  <si>
     <t>멀티 PvE</t>
   </si>
   <si>
@@ -84,18 +70,434 @@
   </si>
   <si>
     <t>아이템 등을 사용해서 최대한 오래 생존하는 게임</t>
+  </si>
+  <si>
+    <t>Wave 시스템. Wave가 진행되고 클리어 후 일정 시간이 지나면 다음 Wave 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스가 있으면 클래스마다 다른 무기를 기본적으로 가지고 시작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 필요. 제한된 장소에 건설할 수 있으면 미니맵을 통해서 그 장소를 표시해주거나 Indicator로 표시해주면 빠르게 설치를 할 수 있을 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가오는 웨이브를 막는 게임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특전 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특전 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재장전 탄환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive Goods</t>
+  </si>
+  <si>
+    <t>방어 물자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통과 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerClasses_MindMap</t>
+  </si>
+  <si>
+    <t>Xmind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Weapons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType_MindMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefensiveGoods_MindMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_MindMap</t>
+  </si>
+  <si>
+    <t>Store_MindMap</t>
+  </si>
+  <si>
+    <t>적 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 타입 별 파일 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_MindMap</t>
+  </si>
+  <si>
+    <t>동일한 스테이터스?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 근접 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 좀비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤충형 게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해머 고래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel 제작 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 Type MindMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyType_MindMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 가능 품목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 모형(링크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중률?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">걷기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업에 필요한 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 목표 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 획득 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 목표 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 획득 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득, 설치, 방어, 사격 등의 튜토리얼 진행있으면 좋긴 할 듯.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 보유 탄환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총기 반동??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 획득 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">킬 수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet 이름 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 마인드 맵 별 필요한 부분 시트로 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 클래스 목표 경험치, 스테이지 획득 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스테이지 획득 포인트 &gt;&gt; 획득 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bunker 관련 시트 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunker </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 별 달라지는 status??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,17 +517,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,8 +672,37 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{397E679B-2820-4AAA-90E5-8C372C3F9577}" name="History" displayName="History" ref="B3:D8" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B3:D8" xr:uid="{397E679B-2820-4AAA-90E5-8C372C3F9577}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CF5702B9-FB13-4B13-B4C1-FA8CB1F72781}" name="일자" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{03E2B50A-5B22-46F6-A540-38E74C45FB20}" name="내용" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EC2D5E4C-6097-45A9-9579-391BFA9782AD}" name="비고" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9AFB6BE1-8206-42E2-9703-C62D31C014AC}" name="Enemy_Info" displayName="Enemy_Info" comment="Enemy Information" ref="B10:I14" totalsRowShown="0">
+  <autoFilter ref="B10:I14" xr:uid="{9AFB6BE1-8206-42E2-9703-C62D31C014AC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F1B9B1F9-22F6-4ACD-9940-7EC9487AF222}" name="이름"/>
+    <tableColumn id="2" xr3:uid="{0668D540-E746-4E40-8D1F-5508BC233333}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{A38C6EB0-71AE-47E4-94FA-286C812F916A}" name="방어력"/>
+    <tableColumn id="4" xr3:uid="{E9400F36-4B3F-4451-A8B0-06B2A42C51A5}" name="이동 속도"/>
+    <tableColumn id="5" xr3:uid="{FBEFB25C-485B-493B-B2B9-697BD349CC18}" name="공격력"/>
+    <tableColumn id="6" xr3:uid="{38A9750E-1E4E-44FF-B8BA-48C1D0D394D4}" name="공격 타입"/>
+    <tableColumn id="7" xr3:uid="{55E85F2F-2326-48DC-B536-E00EA8B90948}" name="크기"/>
+    <tableColumn id="8" xr3:uid="{950567D3-B683-4D32-9779-F368BCC782DF}" name="특수 기술"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,125 +997,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19BAB5D-F7C2-4083-A2D3-C40E160F50B2}">
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="13">
+        <v>44399</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" location="History!마지막셀" display="Last Line" xr:uid="{BD94AE5E-1216-4A8C-9BCF-9B64BB333968}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1D6019-F0B8-4693-91B3-6D0EAE3AF270}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B8" display="Store" xr:uid="{C7F3BAAD-47C9-4C16-950C-E1114BECADC8}"/>
+    <hyperlink ref="E2" location="'스테이지 획득 포인트'!A1" display="스테이지 획득 포인트" xr:uid="{ED53AA3F-9A3C-40BE-9486-8425813E2829}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45F66E0-E0E7-44D9-AD6A-1C323F674A53}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!A1" display="획득 포인트" xr:uid="{B59F7F0A-3DEC-47BD-BACC-F5591ED61260}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29891106-3610-41B1-B22F-BC8DC797CC42}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B10" display="클래스 획득 경험치" xr:uid="{9CC7323F-3917-473F-BE9C-F79ABCB2F6B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA427B96-99AA-402A-BE75-B98B3A6ED3B9}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B11" display="스테이지 획득 경험치" xr:uid="{E9BEF300-B203-4159-92A7-6E501EA168C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8531E88-BB82-4968-9695-67BED657504F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F193F-FCA9-4399-8752-9697BEF5527B}">
+  <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'Player Classes'!A1" display="Player Class" xr:uid="{8CA0BDDB-03B2-4817-87E2-01BDD2CE824B}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8E7099CE-C382-47F4-AC39-9264E408B5C9}"/>
+    <hyperlink ref="B5" location="'Player Weapons'!A1" display="Player Weapons" xr:uid="{BC65A983-6747-4E55-8622-36018288C0DE}"/>
+    <hyperlink ref="C5" r:id="rId2" display="MindMap\WeaponType.xmind" xr:uid="{FA3061B8-E73C-4F1F-9496-9076AB918036}"/>
+    <hyperlink ref="B6" location="'Defensive Goods'!A1" display="Defensive Goods" xr:uid="{336FE1CC-E443-4BFD-8E2C-C172C6ABAD48}"/>
+    <hyperlink ref="C6" r:id="rId3" display="MindMap\DefensiveGoods.xmind" xr:uid="{5FA02947-F1FE-4DFA-B7B6-64F1E5E72C8C}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{1B081DE1-7ED5-4466-A00A-1BA8B9F10CFD}"/>
+    <hyperlink ref="B7" location="Enemy!A1" display="Enemy" xr:uid="{9BB4BB28-E1ED-4591-B184-F88C6B0DFB33}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{A7609ACE-8EC9-49E9-A422-43A31477B5D3}"/>
+    <hyperlink ref="B8" location="Store!A1" display="Store" xr:uid="{FC25DAEA-6A00-467E-B473-E8653D4049B3}"/>
+    <hyperlink ref="B9" location="'Player Status'!A1" display="Player" xr:uid="{DB75F5B8-7AA4-46EE-BE5E-56AF2B90DA44}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{D47E00A5-333C-4348-9E4A-333D8718E8E8}"/>
+    <hyperlink ref="B10" location="'클래스 목표 경험치'!A1" display="클래스 목표 경험치" xr:uid="{24057E6A-4F26-4932-B164-100051E35F0B}"/>
+    <hyperlink ref="B11" location="'스테이지 획득 경험치'!A1" display="스테이지 획득 경험치" xr:uid="{7E8601EA-6A00-46D6-9EA6-5456412D808C}"/>
+    <hyperlink ref="B12" location="'획득 포인트'!A1" display="스테이지 획득 포인트" xr:uid="{2A0833D5-5865-4C47-B38A-3E98530E87DA}"/>
+    <hyperlink ref="B13" location="Bunker!A1" display="Bunker" xr:uid="{41ACA5B1-403E-4C28-A868-B35B2F8B1D9A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CAC325-13F5-4379-B2BF-F526199FC4FF}">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B13" display="Bunker" xr:uid="{C9930A25-6553-47C0-9E0C-E957126394FA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01701D21-C933-4887-9F30-622B056422F3}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B9" display="Player" xr:uid="{DE51AF21-4E7B-463D-99DC-696775A6952D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8531E88-BB82-4968-9695-67BED657504F}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B4" display="Player Class" xr:uid="{9CBC9D6C-A371-4D3A-998B-0C1FBCBD9615}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B928C79A-956F-4844-B24E-568E866747F6}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B5" display="Player Weapon" xr:uid="{DADF41A4-CAF2-4310-898B-CF163048CBC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFF2F36-A7BA-48B7-A4F6-3A1258828949}">
+  <dimension ref="B2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B6" display="Defensive Goods" xr:uid="{2F6FEADC-20EA-410E-A2D7-F2FCCF06CBD8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D0C5EC-A7BB-4777-B5A7-996F1F72F34E}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Hiper Link'!B7" display="Enemy" xr:uid="{7F6100F1-CABD-422D-A71B-81ED3CA19C7A}"/>
+    <hyperlink ref="I5" r:id="rId1" display="MindMap\EnemyType.xmind" xr:uid="{22BE5754-605C-418C-9F0C-841313977E14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ProjectExcel.xlsx
+++ b/ProjectExcel.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="221">
   <si>
     <t xml:space="preserve">Last Line</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">PlayerClasses수정</t>
   </si>
   <si>
-    <t xml:space="preserve">캐릭터의 클래스및 특전, 레벨링 시스템 작성</t>
+    <t xml:space="preserve">캐릭터의 클래스설명및 특전, 레벨링 시스템 작성</t>
   </si>
   <si>
     <t xml:space="preserve">신상엽</t>
@@ -100,6 +100,15 @@
     <t xml:space="preserve">추가적인 업그레이드 및 유지보수 콘텐츠 추가</t>
   </si>
   <si>
+    <t xml:space="preserve">3가지 맵 기본적인 컨셉 제시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1스테이지 기준 최대생성 몹 개수, 클래스별 총기 데미지</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xmind</t>
   </si>
   <si>
@@ -196,6 +205,78 @@
     <t xml:space="preserve">클래스가 있으면 클래스마다 다른 무기를 기본적으로 가지고 시작한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">1스테이지 기준</t>
+  </si>
+  <si>
+    <t xml:space="preserve">레어 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">레어 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">레어 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몹 최대 생성 30마리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몹 체력 20HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> → </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전투병 : 공격력(초반 무기데미지) →  10 : 라이플(AK47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">총기 데미지 :  주 무기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">위생병 : 공격력 → 8 SMG(MP5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공병 : 공격력 → 10  DMR (M1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중화기병 : 총기 공격력 : 12 LMG (M60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M249</t>
+  </si>
+  <si>
     <t xml:space="preserve">난이도 별 달라지는 status??</t>
   </si>
   <si>
@@ -217,9 +298,6 @@
     <t xml:space="preserve">공격 사거리</t>
   </si>
   <si>
-    <t xml:space="preserve"> → </t>
-  </si>
-  <si>
     <t xml:space="preserve">최대 Hp 는 고정된 HP</t>
   </si>
   <si>
@@ -235,7 +313,7 @@
     <t xml:space="preserve">시간당 회복량은 없음</t>
   </si>
   <si>
-    <t xml:space="preserve">공격력 : 200</t>
+    <t xml:space="preserve">공격력 : ????</t>
   </si>
   <si>
     <t xml:space="preserve">초당 10발</t>
@@ -247,18 +325,51 @@
     <t xml:space="preserve">상점에서 거점의 체력을 구매</t>
   </si>
   <si>
+    <t xml:space="preserve">몹 체력에 따라 변경 가능</t>
+  </si>
+  <si>
     <t xml:space="preserve">구매시 일정량 회복</t>
   </si>
   <si>
     <t xml:space="preserve">공병의 수리 가능여부</t>
   </si>
   <si>
+    <t xml:space="preserve">VS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">방어물자에 거점 방어력을 높여주는 물자를 구매할 수 있다.</t>
   </si>
   <si>
+    <t xml:space="preserve">VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그냥 회복만 시킨다(상점에서 회복만 구매한다)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> → 의논후 결정</t>
   </si>
   <si>
+    <t xml:space="preserve">Bunker 맵 컨셉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 도심지 컨셉 : (월드 워Z 호드모드를 참고)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">붕괴된 도심지에서 민간인들이 탈출을 위해 공항에 보호거점에 모여있다. 플레이어는 민간인 보호구역이 안전하도록 웨이브를 막아야한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 사막 컨셉( 영화 레지던트 이블3 사막기지를 참고)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사막에 한 과학기지에 방어거점을 세운 플레이어는 연구원들이 탈출하기전 샘플을 안전하게 옮길수 있도록 웨이브를 막아야한다  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 산악지대 ( 테베트의 카일라스 산의 불교 사원을 참고)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">티베트 산악지대에 있는 한 불교사원에서 구조를 기다리는 플레이어는 구조대가 오기전까지 적들의 공세를 막아야한다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">동일한 스테이터스?</t>
   </si>
   <si>
@@ -283,6 +394,9 @@
     <t xml:space="preserve">클래스 설명</t>
   </si>
   <si>
+    <t xml:space="preserve">패시브</t>
+  </si>
+  <si>
     <t xml:space="preserve">특전</t>
   </si>
   <si>
@@ -295,6 +409,9 @@
     <t xml:space="preserve">게임시작시 AK47 지급</t>
   </si>
   <si>
+    <t xml:space="preserve">라이플 데미지 50%증가</t>
+  </si>
+  <si>
     <t xml:space="preserve">전투병 → 1단계 : 전투자극제(공속및이속증가), 2단계 : 탄약수급(사격시 확률적으로 탄소모없음), 3단계 : 스핏파이어(사격시 확률적으로 발동, 발동시 공격력 대폭 증가)</t>
   </si>
   <si>
@@ -307,6 +424,9 @@
     <t xml:space="preserve">게임시작시 first medikit 지급</t>
   </si>
   <si>
+    <t xml:space="preserve">회복아이템 수용량 1증가</t>
+  </si>
+  <si>
     <t xml:space="preserve">위생병 → 1단계 : 모르핀(회복아이템 회복률 증가,아군 치료시에도 적용), 2단계 : 일어나싸워라(자가회복및 아군 치료속도 증가), 3단계 : 아껴쓰고 나눠쓰기(회복아이템 사용시 확률적으로 회복아이템 소모X)</t>
   </si>
   <si>
@@ -319,6 +439,9 @@
     <t xml:space="preserve">게임시작시 방어물자 지급</t>
   </si>
   <si>
+    <t xml:space="preserve">방어물자 체력 10% 증가</t>
+  </si>
+  <si>
     <t xml:space="preserve">공병 → 1단계 : 건설로봇(건설 속도 증가), 2단계 : 지게로봇 (방어물자 수용량 증가), 3단계 : 자동소화시스템(방어물자 체력 시간당 일정량 회복)</t>
   </si>
   <si>
@@ -329,6 +452,9 @@
   </si>
   <si>
     <t xml:space="preserve">게임시작시 기관총 지급</t>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 체력 25% 증가</t>
   </si>
   <si>
     <t xml:space="preserve">중화기병 → 1단계 : 철갑피부(방어력 증가), 2단계 : 엘엠쥐마운트드앤로디드(중화기 데미지 증가), 3단계 : 라그나로크(근접공격시 확률적으로 발동, 발동시 근접공격력 대폭 증가 )</t>
@@ -814,11 +940,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,8 +1042,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History" displayName="History" ref="B3:D9" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B3:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History" displayName="History" ref="B3:D14" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B3:D14"/>
   <tableColumns count="3">
     <tableColumn id="1" name="일자"/>
     <tableColumn id="2" name="내용"/>
@@ -933,19 +1059,19 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.36"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,49 +1134,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1077,11 +1214,11 @@
   </sheetPr>
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.28"/>
@@ -1092,42 +1229,42 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1152,11 +1289,11 @@
   </sheetPr>
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.63"/>
@@ -1166,49 +1303,49 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1232,15 +1369,15 @@
   </sheetPr>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1264,15 +1401,15 @@
   </sheetPr>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1296,11 +1433,11 @@
   </sheetPr>
   <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
@@ -1308,79 +1445,79 @@
   <sheetData>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1417,20 +1554,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:Q17"/>
+  <dimension ref="B3:Q24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1441,12 +1578,12 @@
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
@@ -1471,7 +1608,7 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
@@ -1485,7 +1622,7 @@
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
@@ -1510,7 +1647,7 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
@@ -1524,7 +1661,7 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
@@ -1538,32 +1675,114 @@
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1582,13 +1801,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:H14"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4"/>
@@ -1601,89 +1820,131 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>69</v>
+        <v>95</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Hiper Link'!B13" display="Bunker"/>
@@ -1705,11 +1966,11 @@
   </sheetPr>
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4"/>
@@ -1722,37 +1983,37 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1774,13 +2035,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:H97"/>
+  <dimension ref="B2:J97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.75"/>
@@ -1796,139 +2057,154 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="s">
-        <v>81</v>
+      <c r="B4" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>119</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>86</v>
+        <v>124</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>90</v>
+        <v>129</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>94</v>
+        <v>134</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>98</v>
+        <v>139</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
-        <v>99</v>
+      <c r="B11" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1964,261 +2240,261 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>119</v>
+        <v>136</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>128</v>
+        <v>168</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>129</v>
+        <v>168</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>130</v>
+        <v>168</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="0" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2242,11 +2518,11 @@
   </sheetPr>
   <dimension ref="B2:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.13"/>
@@ -2262,49 +2538,49 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2328,11 +2604,11 @@
   </sheetPr>
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4"/>
@@ -2344,48 +2620,48 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2409,11 +2685,11 @@
   </sheetPr>
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.56"/>
@@ -2427,97 +2703,97 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="18" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
